--- a/biology/Zoologie/Carlos_Alberto_Gonçalves_da_Cruz/Carlos_Alberto_Gonçalves_da_Cruz.xlsx
+++ b/biology/Zoologie/Carlos_Alberto_Gonçalves_da_Cruz/Carlos_Alberto_Gonçalves_da_Cruz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carlos_Alberto_Gon%C3%A7alves_da_Cruz</t>
+          <t>Carlos_Alberto_Gonçalves_da_Cruz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carlos Alberto Gonçalves da Cruz est un herpétologiste brésilien né en 1944. Il travaille au Museu Nacional do Rio de Janeiro.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carlos_Alberto_Gon%C3%A7alves_da_Cruz</t>
+          <t>Carlos_Alberto_Gonçalves_da_Cruz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Craugastor cruzi (McCranie, Savage &amp; Wilson, 1989)
 Hyla cruzi Pombal et Bastos, 1998
-Chiasmocleis crucis Caramaschi et Pimenta, 2003[1]</t>
+Chiasmocleis crucis Caramaschi et Pimenta, 2003</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carlos_Alberto_Gon%C3%A7alves_da_Cruz</t>
+          <t>Carlos_Alberto_Gonçalves_da_Cruz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chiasmocleis alagoanus
@@ -591,7 +607,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carlos_Alberto_Gon%C3%A7alves_da_Cruz</t>
+          <t>Carlos_Alberto_Gonçalves_da_Cruz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -609,7 +625,9 @@
           <t>Référence biographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(pt) information biographique</t>
         </is>
